--- a/Wanda.BusinessIndicators/Excel/月度经营报告V1.xlsx
+++ b/Wanda.BusinessIndicators/Excel/月度经营报告V1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\j\JYZB\SourceCode\JYZB\Wanda.BusinessIndicators\Wanda.BusinessIndicators\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\work\LJTH\jyzb\Code\Wanda.BusinessIndicators\Wanda.BusinessIndicators\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{038B5C5C-12D6-4CCE-9C6C-F44302FB669D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1920" windowWidth="14940" windowHeight="9225" tabRatio="827" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1920" windowWidth="14940" windowHeight="9230" tabRatio="827" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">月度经营报告!$B$1:$J$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <webPublishing codePage="0"/>
 </workbook>
 </file>
@@ -75,40 +76,6 @@
   <si>
     <t>&amp;=$Date</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="华文细黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="华文细黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目</t>
-    </r>
   </si>
   <si>
     <r>
@@ -255,11 +222,15 @@
     <t>&amp;=[MonthReportSummary].MeasureRate1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>指     标</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -269,7 +240,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="바탕체"/>
@@ -470,7 +441,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -642,25 +613,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_" xfId="6"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="7"/>
-    <cellStyle name="Comma" xfId="4"/>
-    <cellStyle name="Comma [0]" xfId="5"/>
-    <cellStyle name="Currency" xfId="2"/>
-    <cellStyle name="Currency [0]" xfId="3"/>
-    <cellStyle name="Normal" xfId="16"/>
-    <cellStyle name="Percent" xfId="1"/>
-    <cellStyle name="百分比" xfId="8"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal" xfId="16" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="百分比" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="13"/>
-    <cellStyle name="常规 2 6" xfId="15"/>
-    <cellStyle name="常规_Sheet1" xfId="9"/>
-    <cellStyle name="千位分隔" xfId="10"/>
-    <cellStyle name="千位分隔 2" xfId="14"/>
-    <cellStyle name="千位分隔 2 2" xfId="12"/>
-    <cellStyle name="千位分隔_租金收缴执行表" xfId="11"/>
+    <cellStyle name="常规 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规_Sheet1" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="千位分隔" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="千位分隔 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="千位分隔 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="千位分隔_租金收缴执行表" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,7 +651,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -751,6 +726,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -786,6 +778,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -961,15 +970,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" showZeros="0" showOutlineSymbols="0" defaultGridColor="0" colorId="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="14.25" customHeight="1">
+    <row r="2" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -982,17 +991,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="3" customWidth="1"/>
@@ -1002,12 +1011,12 @@
     <col min="6" max="6" width="12.75" style="3" customWidth="1"/>
     <col min="7" max="9" width="12.75" style="25" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="26" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="31.5" customHeight="1">
+    <row r="1" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1029,7 @@
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
     </row>
-    <row r="2" spans="2:14" s="5" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="2:14" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
@@ -1034,64 +1043,64 @@
       <c r="J2" s="45"/>
       <c r="K2" s="46"/>
       <c r="L2" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" s="4" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B3" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
       <c r="K3" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="48"/>
     </row>
-    <row r="4" spans="2:14" s="4" customFormat="1" ht="59.25" customHeight="1">
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="48"/>
       <c r="C4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="F4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="G4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="39" t="s">
+      <c r="L4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" s="4" customFormat="1" ht="24.95" customHeight="1">
+    </row>
+    <row r="5" spans="2:14" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
         <v>11</v>
       </c>
@@ -1120,13 +1129,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="2:14" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1141,7 +1150,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="2:14" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="2:14" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1156,7 +1165,7 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="2:14" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="2:14" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -1171,7 +1180,7 @@
       <c r="M8"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="2:14" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="2:14" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1186,7 +1195,7 @@
       <c r="M9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="2:14" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="2:14" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1201,7 +1210,7 @@
       <c r="M10"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="2:14" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="2:14" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1216,7 +1225,7 @@
       <c r="M11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="2:14" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="2:14" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1231,7 +1240,7 @@
       <c r="M12"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="2:14" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="2:14" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -1243,7 +1252,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="2:14" ht="30.75" customHeight="1">
+    <row r="14" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -1253,7 +1262,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -1267,7 +1276,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="2:14" hidden="1">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="C16" s="15">
         <v>-1043</v>
       </c>
@@ -1289,7 +1298,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -1303,7 +1312,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -1317,7 +1326,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -1331,7 +1340,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -1345,7 +1354,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -1359,7 +1368,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
